--- a/用例数据/沪A/国债/普通交易/测试结果.xlsx
+++ b/用例数据/沪A/国债/普通交易/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="356">
   <si>
     <t>EXCHID</t>
   </si>
@@ -295,15 +295,6 @@
     <t>019666</t>
   </si>
   <si>
-    <t>5300000</t>
-  </si>
-  <si>
-    <t>101.26805660</t>
-  </si>
-  <si>
-    <t>537351753.4400</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -343,10 +334,760 @@
     <t>300000</t>
   </si>
   <si>
-    <t>101.90233293</t>
-  </si>
-  <si>
     <t>30416136.9900</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>101.90237293</t>
+  </si>
+  <si>
+    <t>4700000</t>
+  </si>
+  <si>
+    <t>101.23000000</t>
+  </si>
+  <si>
+    <t>476519479.4600</t>
+  </si>
+  <si>
+    <t>189462.060</t>
+  </si>
+  <si>
+    <t>0.00000000</t>
+  </si>
+  <si>
+    <t>SERIALNUM</t>
+  </si>
+  <si>
+    <t>BRIEFID</t>
+  </si>
+  <si>
+    <t>RECKONINGTIME</t>
+  </si>
+  <si>
+    <t>OCCURTIME</t>
+  </si>
+  <si>
+    <t>CONTRACTNUM</t>
+  </si>
+  <si>
+    <t>BANKSERIALNUM</t>
+  </si>
+  <si>
+    <t>BANKID</t>
+  </si>
+  <si>
+    <t>ACCTNAME</t>
+  </si>
+  <si>
+    <t>BRANCHID</t>
+  </si>
+  <si>
+    <t>OPTMODE</t>
+  </si>
+  <si>
+    <t>OPTID</t>
+  </si>
+  <si>
+    <t>ORDERTYPE</t>
+  </si>
+  <si>
+    <t>KNOCKQTY</t>
+  </si>
+  <si>
+    <t>KNOCKPRICE</t>
+  </si>
+  <si>
+    <t>KNOCKTIME</t>
+  </si>
+  <si>
+    <t>RECKONINGAMT</t>
+  </si>
+  <si>
+    <t>KNOCKAMT</t>
+  </si>
+  <si>
+    <t>POSTAMT</t>
+  </si>
+  <si>
+    <t>POSTQTY</t>
+  </si>
+  <si>
+    <t>STAMPTAX</t>
+  </si>
+  <si>
+    <t>STANDARDCOMMISIONFEE</t>
+  </si>
+  <si>
+    <t>COMMISION</t>
+  </si>
+  <si>
+    <t>TRADETRANSFEE</t>
+  </si>
+  <si>
+    <t>RECKONINGFEE</t>
+  </si>
+  <si>
+    <t>TRANSRULEFEE</t>
+  </si>
+  <si>
+    <t>PERORDERFEE</t>
+  </si>
+  <si>
+    <t>WITHDRAWFEE</t>
+  </si>
+  <si>
+    <t>KNOCKFEE</t>
+  </si>
+  <si>
+    <t>HANDLINGFEE</t>
+  </si>
+  <si>
+    <t>STKMNGFEE</t>
+  </si>
+  <si>
+    <t>EXCHTRANSFEE</t>
+  </si>
+  <si>
+    <t>VENTUREFEE</t>
+  </si>
+  <si>
+    <t>OPTLEVEL</t>
+  </si>
+  <si>
+    <t>CUSTTYPE</t>
+  </si>
+  <si>
+    <t>CUSTNAME</t>
+  </si>
+  <si>
+    <t>BROKERID</t>
+  </si>
+  <si>
+    <t>OPTBRANCHID</t>
+  </si>
+  <si>
+    <t>COSTCENTERID</t>
+  </si>
+  <si>
+    <t>NOTENUM</t>
+  </si>
+  <si>
+    <t>DEPOSITINTEREST</t>
+  </si>
+  <si>
+    <t>DEPOSITSUM</t>
+  </si>
+  <si>
+    <t>SALESID</t>
+  </si>
+  <si>
+    <t>UNDOFLAG</t>
+  </si>
+  <si>
+    <t>CHECKORCASH</t>
+  </si>
+  <si>
+    <t>ACCOUNTINGFLAG</t>
+  </si>
+  <si>
+    <t>AUDITOPTID1</t>
+  </si>
+  <si>
+    <t>AUDITOPTID2</t>
+  </si>
+  <si>
+    <t>GETACCOUNTDATE</t>
+  </si>
+  <si>
+    <t>GETACCOUNTNUM</t>
+  </si>
+  <si>
+    <t>MEMO</t>
+  </si>
+  <si>
+    <t>ACCUREDINTEREST</t>
+  </si>
+  <si>
+    <t>FULLKNOCKAMT</t>
+  </si>
+  <si>
+    <t>BANKACCTID</t>
+  </si>
+  <si>
+    <t>BANKAMT</t>
+  </si>
+  <si>
+    <t>RIGHTOWNFLAG</t>
+  </si>
+  <si>
+    <t>SELFFLAG</t>
+  </si>
+  <si>
+    <t>BANKCONTRACTNUM</t>
+  </si>
+  <si>
+    <t>OFFERTIME</t>
+  </si>
+  <si>
+    <t>CHARGETYPE</t>
+  </si>
+  <si>
+    <t>DISCOUNTAMT</t>
+  </si>
+  <si>
+    <t>OVERDUEAMT</t>
+  </si>
+  <si>
+    <t>CONFIRMRESULT</t>
+  </si>
+  <si>
+    <t>AUDITOPTID</t>
+  </si>
+  <si>
+    <t>CONFIRMTIME</t>
+  </si>
+  <si>
+    <t>TODAYCHARGEFLAG</t>
+  </si>
+  <si>
+    <t>RECKONINGCHECKFLAG</t>
+  </si>
+  <si>
+    <t>STKRECKCHKFLAG</t>
+  </si>
+  <si>
+    <t>CUSTODYMODE</t>
+  </si>
+  <si>
+    <t>CONFIRMFEE</t>
+  </si>
+  <si>
+    <t>AGENCYFEE</t>
+  </si>
+  <si>
+    <t>ORDERSTKID</t>
+  </si>
+  <si>
+    <t>PRICE1</t>
+  </si>
+  <si>
+    <t>PRICE2</t>
+  </si>
+  <si>
+    <t>INTERNALBIZMARK</t>
+  </si>
+  <si>
+    <t>CREDITSTOCKFLAG</t>
+  </si>
+  <si>
+    <t>TRANSACTIONREF</t>
+  </si>
+  <si>
+    <t>RMSTRADEID</t>
+  </si>
+  <si>
+    <t>INTERESTMODE</t>
+  </si>
+  <si>
+    <t>SETTLEDATE</t>
+  </si>
+  <si>
+    <t>KNOCKQTYF</t>
+  </si>
+  <si>
+    <t>CUSTBANKID</t>
+  </si>
+  <si>
+    <t>INTERNALORDERTYPE</t>
+  </si>
+  <si>
+    <t>CUSTBANKACCTID</t>
+  </si>
+  <si>
+    <t>CUSTBANKTRANSPERSION</t>
+  </si>
+  <si>
+    <t>TACODE</t>
+  </si>
+  <si>
+    <t>SETTLEMENTMETHOD</t>
+  </si>
+  <si>
+    <t>PROJECTID</t>
+  </si>
+  <si>
+    <t>DELIVERYTYPE</t>
+  </si>
+  <si>
+    <t>TAACCOUNTID</t>
+  </si>
+  <si>
+    <t>CREDITFUNDFLAG</t>
+  </si>
+  <si>
+    <t>SUBCLIENTID</t>
+  </si>
+  <si>
+    <t>ISSOLICITED</t>
+  </si>
+  <si>
+    <t>BASKETID</t>
+  </si>
+  <si>
+    <t>EXTERIORACCTID</t>
+  </si>
+  <si>
+    <t>TDELIVERFLAG</t>
+  </si>
+  <si>
+    <t>OFFSETFLAG</t>
+  </si>
+  <si>
+    <t>EXCHMARGINAMT</t>
+  </si>
+  <si>
+    <t>CUSTMARGINAMT</t>
+  </si>
+  <si>
+    <t>CLOSEPNL</t>
+  </si>
+  <si>
+    <t>REALTIMEPNL</t>
+  </si>
+  <si>
+    <t>OPENDATE</t>
+  </si>
+  <si>
+    <t>OPENKNOCKCODE</t>
+  </si>
+  <si>
+    <t>TRADECURRENCYID</t>
+  </si>
+  <si>
+    <t>TRADERECKONINGAMT</t>
+  </si>
+  <si>
+    <t>SETTLEKNOCKAMT</t>
+  </si>
+  <si>
+    <t>SETTLEFULLKNOCKAMT</t>
+  </si>
+  <si>
+    <t>SETTLEACCUREDINTEREST</t>
+  </si>
+  <si>
+    <t>SETTLESTAMPTAX</t>
+  </si>
+  <si>
+    <t>SETTLECOMMISION</t>
+  </si>
+  <si>
+    <t>SETTLETRADETRANSFEE</t>
+  </si>
+  <si>
+    <t>SETTLERECKONINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLETRANSRULEFEE</t>
+  </si>
+  <si>
+    <t>SETTLEHANDLINGFEE</t>
+  </si>
+  <si>
+    <t>SETTLESTKMNGFEE</t>
+  </si>
+  <si>
+    <t>SETTLEEXCHTRANSFEE</t>
+  </si>
+  <si>
+    <t>SETTLEVENTUREFEE</t>
+  </si>
+  <si>
+    <t>SECUAMT</t>
+  </si>
+  <si>
+    <t>SETTLESECUAMT</t>
+  </si>
+  <si>
+    <t>PERMITPHONE</t>
+  </si>
+  <si>
+    <t>OPERATIONMAC</t>
+  </si>
+  <si>
+    <t>SHAREATTR</t>
+  </si>
+  <si>
+    <t>SETTLEMODE</t>
+  </si>
+  <si>
+    <t>FIRSTOTHERFEE</t>
+  </si>
+  <si>
+    <t>SECONDOTHERFEE</t>
+  </si>
+  <si>
+    <t>LISTEDSTATUS</t>
+  </si>
+  <si>
+    <t>ADJUSTEDFEEFLAG</t>
+  </si>
+  <si>
+    <t>BUSINESSCODE</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30000256</t>
+  </si>
+  <si>
+    <t>005_001_001</t>
+  </si>
+  <si>
+    <t>20221213225912</t>
+  </si>
+  <si>
+    <t>0000550000</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>99990</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>99.99700000</t>
+  </si>
+  <si>
+    <t>20221213100538</t>
+  </si>
+  <si>
+    <t>-5095227.000</t>
+  </si>
+  <si>
+    <t>4999850.000</t>
+  </si>
+  <si>
+    <t>-77031035.920</t>
+  </si>
+  <si>
+    <t>1018.840</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>99998</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>1200801000569171</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>1.88712329</t>
+  </si>
+  <si>
+    <t>5094206.160</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000007094941</t>
+  </si>
+  <si>
+    <t>NONDVP</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>30000257</t>
+  </si>
+  <si>
+    <t>0000550001</t>
+  </si>
+  <si>
+    <t>99.99600000</t>
+  </si>
+  <si>
+    <t>20221213101123</t>
+  </si>
+  <si>
+    <t>-5095176.990</t>
+  </si>
+  <si>
+    <t>4999800.000</t>
+  </si>
+  <si>
+    <t>-82126212.910</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>1018.830</t>
+  </si>
+  <si>
+    <t>1200801000630866</t>
+  </si>
+  <si>
+    <t>5094156.160</t>
+  </si>
+  <si>
+    <t>000007094943</t>
+  </si>
+  <si>
+    <t>30000260</t>
+  </si>
+  <si>
+    <t>0000550002</t>
+  </si>
+  <si>
+    <t>20221213101153</t>
+  </si>
+  <si>
+    <t>-87221389.900</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>1200801000636447</t>
+  </si>
+  <si>
+    <t>000007094945</t>
+  </si>
+  <si>
+    <t>30000264</t>
+  </si>
+  <si>
+    <t>0000550003</t>
+  </si>
+  <si>
+    <t>20221213101552</t>
+  </si>
+  <si>
+    <t>-5095177.000</t>
+  </si>
+  <si>
+    <t>-92316566.900</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>1200801000697448</t>
+  </si>
+  <si>
+    <t>5094156.170</t>
+  </si>
+  <si>
+    <t>000007094985</t>
+  </si>
+  <si>
+    <t>30000270</t>
+  </si>
+  <si>
+    <t>0000550004</t>
+  </si>
+  <si>
+    <t>99.99200000</t>
+  </si>
+  <si>
+    <t>20221213103312</t>
+  </si>
+  <si>
+    <t>-5094976.950</t>
+  </si>
+  <si>
+    <t>4999600.000</t>
+  </si>
+  <si>
+    <t>-97531667.870</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>1018.790</t>
+  </si>
+  <si>
+    <t>1200801000968599</t>
+  </si>
+  <si>
+    <t>5093956.160</t>
+  </si>
+  <si>
+    <t>000007094991</t>
+  </si>
+  <si>
+    <t>30000274</t>
+  </si>
+  <si>
+    <t>0000550006</t>
+  </si>
+  <si>
+    <t>20221213104035</t>
+  </si>
+  <si>
+    <t>-102626644.820</t>
+  </si>
+  <si>
+    <t>1200801001075695</t>
+  </si>
+  <si>
+    <t>000007094993</t>
+  </si>
+  <si>
+    <t>30000277</t>
+  </si>
+  <si>
+    <t>005_002_001</t>
+  </si>
+  <si>
+    <t>0000550007</t>
+  </si>
+  <si>
+    <t>5093185.320</t>
+  </si>
+  <si>
+    <t>-5966605.170</t>
+  </si>
+  <si>
+    <t>4950000</t>
+  </si>
+  <si>
+    <t>2200801000569171</t>
+  </si>
+  <si>
+    <t>000007094942</t>
+  </si>
+  <si>
+    <t>30000281</t>
+  </si>
+  <si>
+    <t>0000550008</t>
+  </si>
+  <si>
+    <t>5093135.330</t>
+  </si>
+  <si>
+    <t>-873469.840</t>
+  </si>
+  <si>
+    <t>4900000</t>
+  </si>
+  <si>
+    <t>2200801000630866</t>
+  </si>
+  <si>
+    <t>000007094944</t>
+  </si>
+  <si>
+    <t>30000285</t>
+  </si>
+  <si>
+    <t>0000550009</t>
+  </si>
+  <si>
+    <t>4219665.490</t>
+  </si>
+  <si>
+    <t>4850000</t>
+  </si>
+  <si>
+    <t>2200801000636447</t>
+  </si>
+  <si>
+    <t>000007094946</t>
+  </si>
+  <si>
+    <t>30000288</t>
+  </si>
+  <si>
+    <t>0000550010</t>
+  </si>
+  <si>
+    <t>5093135.340</t>
+  </si>
+  <si>
+    <t>9312800.830</t>
+  </si>
+  <si>
+    <t>4800000</t>
+  </si>
+  <si>
+    <t>2200801000697448</t>
+  </si>
+  <si>
+    <t>000007094986</t>
+  </si>
+  <si>
+    <t>30000296</t>
+  </si>
+  <si>
+    <t>0000550012</t>
+  </si>
+  <si>
+    <t>5092935.370</t>
+  </si>
+  <si>
+    <t>14525812.180</t>
+  </si>
+  <si>
+    <t>4750000</t>
+  </si>
+  <si>
+    <t>2200801000968599</t>
+  </si>
+  <si>
+    <t>000007094992</t>
+  </si>
+  <si>
+    <t>30000300</t>
+  </si>
+  <si>
+    <t>0000550013</t>
+  </si>
+  <si>
+    <t>19618747.550</t>
+  </si>
+  <si>
+    <t>2200801001075695</t>
+  </si>
+  <si>
+    <t>000007094994</t>
   </si>
 </sst>
 </file>
@@ -672,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH16"/>
+  <dimension ref="A1:CH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -945,19 +1686,19 @@
         <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>90</v>
@@ -969,187 +1710,187 @@
         <v>86</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR2" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>86</v>
@@ -1205,19 +1946,19 @@
         <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>90</v>
@@ -1229,187 +1970,187 @@
         <v>86</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR3" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>86</v>
@@ -1468,11 +2209,6 @@
     <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1482,15 +2218,4504 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:EI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CR5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="DN5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DQ5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="CJ6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CR6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="DM6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="DN6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DQ6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CR7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="DM7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="DN7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DQ7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CR8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ8" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DN8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DQ8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CR9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DN9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DQ9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="CJ10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CR10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DN10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DQ10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ11" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH11" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="CJ11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CR11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ11" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DM11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="DN11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DQ11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="CJ12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CR12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="DM12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="DN12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DQ12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI12" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH13" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="CJ13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CK13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CR13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CV13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DA13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DC13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DE13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DJ13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DL13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="DM13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="DN13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DO13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DP13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DQ13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DR13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DS13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DU13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DV13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DX13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EE13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EG13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="EI13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/用例数据/沪A/国债/普通交易/测试结果.xlsx
+++ b/用例数据/沪A/国债/普通交易/测试结果.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0341589F-B23C-4544-90D3-1FAB9667E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -340,9 +341,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>101.90237293</t>
-  </si>
-  <si>
     <t>4700000</t>
   </si>
   <si>
@@ -352,9 +350,6 @@
     <t>476519479.4600</t>
   </si>
   <si>
-    <t>189462.060</t>
-  </si>
-  <si>
     <t>0.00000000</t>
   </si>
   <si>
@@ -742,15 +737,9 @@
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>30000256</t>
-  </si>
-  <si>
     <t>005_001_001</t>
   </si>
   <si>
-    <t>20221213225912</t>
-  </si>
-  <si>
     <t>0000550000</t>
   </si>
   <si>
@@ -769,21 +758,9 @@
     <t>99.99700000</t>
   </si>
   <si>
-    <t>20221213100538</t>
-  </si>
-  <si>
-    <t>-5095227.000</t>
-  </si>
-  <si>
     <t>4999850.000</t>
   </si>
   <si>
-    <t>-77031035.920</t>
-  </si>
-  <si>
-    <t>1018.840</t>
-  </si>
-  <si>
     <t>1.000</t>
   </si>
   <si>
@@ -817,9 +794,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>000007094941</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -832,78 +806,36 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>30000257</t>
-  </si>
-  <si>
     <t>0000550001</t>
   </si>
   <si>
     <t>99.99600000</t>
   </si>
   <si>
-    <t>20221213101123</t>
-  </si>
-  <si>
-    <t>-5095176.990</t>
-  </si>
-  <si>
     <t>4999800.000</t>
   </si>
   <si>
-    <t>-82126212.910</t>
-  </si>
-  <si>
     <t>100000</t>
   </si>
   <si>
-    <t>1018.830</t>
-  </si>
-  <si>
     <t>1200801000630866</t>
   </si>
   <si>
     <t>5094156.160</t>
   </si>
   <si>
-    <t>000007094943</t>
-  </si>
-  <si>
-    <t>30000260</t>
-  </si>
-  <si>
     <t>0000550002</t>
   </si>
   <si>
-    <t>20221213101153</t>
-  </si>
-  <si>
-    <t>-87221389.900</t>
-  </si>
-  <si>
     <t>150000</t>
   </si>
   <si>
     <t>1200801000636447</t>
   </si>
   <si>
-    <t>000007094945</t>
-  </si>
-  <si>
-    <t>30000264</t>
-  </si>
-  <si>
     <t>0000550003</t>
   </si>
   <si>
-    <t>20221213101552</t>
-  </si>
-  <si>
-    <t>-5095177.000</t>
-  </si>
-  <si>
-    <t>-92316566.900</t>
-  </si>
-  <si>
     <t>200000</t>
   </si>
   <si>
@@ -913,187 +845,256 @@
     <t>5094156.170</t>
   </si>
   <si>
-    <t>000007094985</t>
-  </si>
-  <si>
-    <t>30000270</t>
-  </si>
-  <si>
     <t>0000550004</t>
   </si>
   <si>
     <t>99.99200000</t>
   </si>
   <si>
-    <t>20221213103312</t>
-  </si>
-  <si>
-    <t>-5094976.950</t>
-  </si>
-  <si>
     <t>4999600.000</t>
   </si>
   <si>
-    <t>-97531667.870</t>
-  </si>
-  <si>
     <t>250000</t>
   </si>
   <si>
-    <t>1018.790</t>
-  </si>
-  <si>
     <t>1200801000968599</t>
   </si>
   <si>
     <t>5093956.160</t>
   </si>
   <si>
-    <t>000007094991</t>
-  </si>
-  <si>
-    <t>30000274</t>
-  </si>
-  <si>
     <t>0000550006</t>
   </si>
   <si>
-    <t>20221213104035</t>
-  </si>
-  <si>
-    <t>-102626644.820</t>
-  </si>
-  <si>
     <t>1200801001075695</t>
   </si>
   <si>
-    <t>000007094993</t>
-  </si>
-  <si>
-    <t>30000277</t>
-  </si>
-  <si>
     <t>005_002_001</t>
   </si>
   <si>
     <t>0000550007</t>
   </si>
   <si>
-    <t>5093185.320</t>
-  </si>
-  <si>
-    <t>-5966605.170</t>
-  </si>
-  <si>
     <t>4950000</t>
   </si>
   <si>
     <t>2200801000569171</t>
   </si>
   <si>
-    <t>000007094942</t>
-  </si>
-  <si>
-    <t>30000281</t>
-  </si>
-  <si>
     <t>0000550008</t>
   </si>
   <si>
-    <t>5093135.330</t>
-  </si>
-  <si>
-    <t>-873469.840</t>
-  </si>
-  <si>
     <t>4900000</t>
   </si>
   <si>
     <t>2200801000630866</t>
   </si>
   <si>
-    <t>000007094944</t>
-  </si>
-  <si>
-    <t>30000285</t>
-  </si>
-  <si>
     <t>0000550009</t>
   </si>
   <si>
-    <t>4219665.490</t>
-  </si>
-  <si>
     <t>4850000</t>
   </si>
   <si>
     <t>2200801000636447</t>
   </si>
   <si>
-    <t>000007094946</t>
-  </si>
-  <si>
-    <t>30000288</t>
-  </si>
-  <si>
     <t>0000550010</t>
   </si>
   <si>
-    <t>5093135.340</t>
-  </si>
-  <si>
-    <t>9312800.830</t>
-  </si>
-  <si>
     <t>4800000</t>
   </si>
   <si>
     <t>2200801000697448</t>
   </si>
   <si>
-    <t>000007094986</t>
-  </si>
-  <si>
-    <t>30000296</t>
-  </si>
-  <si>
     <t>0000550012</t>
   </si>
   <si>
-    <t>5092935.370</t>
-  </si>
-  <si>
-    <t>14525812.180</t>
-  </si>
-  <si>
     <t>4750000</t>
   </si>
   <si>
     <t>2200801000968599</t>
   </si>
   <si>
-    <t>000007094992</t>
-  </si>
-  <si>
-    <t>30000300</t>
-  </si>
-  <si>
     <t>0000550013</t>
   </si>
   <si>
-    <t>19618747.550</t>
-  </si>
-  <si>
     <t>2200801001075695</t>
   </si>
   <si>
-    <t>000007094994</t>
+    <t>101.98387860</t>
+  </si>
+  <si>
+    <t>165010.360</t>
+  </si>
+  <si>
+    <t>30000330</t>
+  </si>
+  <si>
+    <t>20230403112847</t>
+  </si>
+  <si>
+    <t>20230403100538</t>
+  </si>
+  <si>
+    <t>5089109.950</t>
+  </si>
+  <si>
+    <t>1696481872.310</t>
+  </si>
+  <si>
+    <t>5094.210</t>
+  </si>
+  <si>
+    <t>000007159942</t>
+  </si>
+  <si>
+    <t>30000333</t>
+  </si>
+  <si>
+    <t>20230403101123</t>
+  </si>
+  <si>
+    <t>5089060.000</t>
+  </si>
+  <si>
+    <t>1701570932.310</t>
+  </si>
+  <si>
+    <t>5094.160</t>
+  </si>
+  <si>
+    <t>000007159944</t>
+  </si>
+  <si>
+    <t>30000334</t>
+  </si>
+  <si>
+    <t>20230403101153</t>
+  </si>
+  <si>
+    <t>1706659992.310</t>
+  </si>
+  <si>
+    <t>000007159946</t>
+  </si>
+  <si>
+    <t>30000336</t>
+  </si>
+  <si>
+    <t>20230403101552</t>
+  </si>
+  <si>
+    <t>5089060.010</t>
+  </si>
+  <si>
+    <t>1711749052.320</t>
+  </si>
+  <si>
+    <t>000007159952</t>
+  </si>
+  <si>
+    <t>30000341</t>
+  </si>
+  <si>
+    <t>20230403103312</t>
+  </si>
+  <si>
+    <t>5088860.200</t>
+  </si>
+  <si>
+    <t>1716957988.500</t>
+  </si>
+  <si>
+    <t>5093.960</t>
+  </si>
+  <si>
+    <t>000007159958</t>
+  </si>
+  <si>
+    <t>30000343</t>
+  </si>
+  <si>
+    <t>20230403104035</t>
+  </si>
+  <si>
+    <t>1722046848.700</t>
+  </si>
+  <si>
+    <t>000007159948</t>
+  </si>
+  <si>
+    <t>30000371</t>
+  </si>
+  <si>
+    <t>-5099302.370</t>
+  </si>
+  <si>
+    <t>3655929329.790</t>
+  </si>
+  <si>
+    <t>000007159941</t>
+  </si>
+  <si>
+    <t>30000372</t>
+  </si>
+  <si>
+    <t>-5099252.320</t>
+  </si>
+  <si>
+    <t>3650830077.470</t>
+  </si>
+  <si>
+    <t>000007159943</t>
+  </si>
+  <si>
+    <t>30000373</t>
+  </si>
+  <si>
+    <t>3645730825.150</t>
+  </si>
+  <si>
+    <t>000007159945</t>
+  </si>
+  <si>
+    <t>30000374</t>
+  </si>
+  <si>
+    <t>-5099252.330</t>
+  </si>
+  <si>
+    <t>3640631572.820</t>
+  </si>
+  <si>
+    <t>000007159951</t>
+  </si>
+  <si>
+    <t>30000376</t>
+  </si>
+  <si>
+    <t>-5099052.120</t>
+  </si>
+  <si>
+    <t>3635412396.680</t>
+  </si>
+  <si>
+    <t>000007159957</t>
+  </si>
+  <si>
+    <t>30000377</t>
+  </si>
+  <si>
+    <t>3630313344.560</t>
+  </si>
+  <si>
+    <t>000007159947</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1412,16 +1413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>103</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>104</v>
@@ -1881,7 +1882,7 @@
         <v>86</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>104</v>
@@ -1941,7 +1942,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -1970,22 +1971,22 @@
         <v>86</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>86</v>
@@ -2141,13 +2142,13 @@
         <v>86</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="BR3" s="1" t="s">
         <v>100</v>
@@ -2201,14 +2202,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2217,51 +2218,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -2279,399 +2280,399 @@
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="EH1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>89</v>
@@ -2680,7 +2681,7 @@
         <v>99</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>90</v>
@@ -2698,97 +2699,97 @@
         <v>94</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>96</v>
@@ -2797,7 +2798,7 @@
         <v>91</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>86</v>
@@ -2809,16 +2810,16 @@
         <v>105</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>91</v>
@@ -2827,7 +2828,7 @@
         <v>86</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>86</v>
@@ -2842,10 +2843,10 @@
         <v>91</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>105</v>
@@ -2857,7 +2858,7 @@
         <v>105</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>91</v>
@@ -2875,31 +2876,31 @@
         <v>86</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>91</v>
@@ -2908,37 +2909,37 @@
         <v>91</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="DM2" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="DQ2" s="1" t="s">
         <v>91</v>
@@ -2968,7 +2969,7 @@
         <v>91</v>
       </c>
       <c r="EC2" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED2" s="1" t="s">
         <v>91</v>
@@ -2983,33 +2984,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>89</v>
@@ -3018,7 +3019,7 @@
         <v>99</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>90</v>
@@ -3036,97 +3037,97 @@
         <v>94</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>96</v>
@@ -3135,7 +3136,7 @@
         <v>91</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>86</v>
@@ -3147,16 +3148,16 @@
         <v>105</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>91</v>
@@ -3165,7 +3166,7 @@
         <v>86</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>86</v>
@@ -3180,10 +3181,10 @@
         <v>91</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>105</v>
@@ -3195,7 +3196,7 @@
         <v>105</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>91</v>
@@ -3213,31 +3214,31 @@
         <v>86</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>91</v>
@@ -3246,37 +3247,37 @@
         <v>91</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="DQ3" s="1" t="s">
         <v>91</v>
@@ -3306,7 +3307,7 @@
         <v>91</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED3" s="1" t="s">
         <v>91</v>
@@ -3321,33 +3322,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>89</v>
@@ -3356,7 +3357,7 @@
         <v>99</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>90</v>
@@ -3374,97 +3375,97 @@
         <v>94</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>96</v>
@@ -3473,7 +3474,7 @@
         <v>91</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>86</v>
@@ -3485,16 +3486,16 @@
         <v>105</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>91</v>
@@ -3503,7 +3504,7 @@
         <v>86</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>86</v>
@@ -3518,10 +3519,10 @@
         <v>91</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>105</v>
@@ -3533,7 +3534,7 @@
         <v>105</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>91</v>
@@ -3551,31 +3552,31 @@
         <v>86</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC4" s="1" t="s">
         <v>91</v>
@@ -3584,37 +3585,37 @@
         <v>91</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO4" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP4" s="1" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="DQ4" s="1" t="s">
         <v>91</v>
@@ -3644,7 +3645,7 @@
         <v>91</v>
       </c>
       <c r="EC4" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED4" s="1" t="s">
         <v>91</v>
@@ -3659,33 +3660,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>89</v>
@@ -3694,7 +3695,7 @@
         <v>99</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>90</v>
@@ -3712,97 +3713,97 @@
         <v>94</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP5" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>96</v>
@@ -3811,7 +3812,7 @@
         <v>91</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>86</v>
@@ -3823,16 +3824,16 @@
         <v>105</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>91</v>
@@ -3841,7 +3842,7 @@
         <v>86</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>86</v>
@@ -3856,10 +3857,10 @@
         <v>91</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>105</v>
@@ -3871,7 +3872,7 @@
         <v>105</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>91</v>
@@ -3889,31 +3890,31 @@
         <v>86</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC5" s="1" t="s">
         <v>91</v>
@@ -3922,37 +3923,37 @@
         <v>91</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL5" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="DM5" s="1" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="DN5" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP5" s="1" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="DQ5" s="1" t="s">
         <v>91</v>
@@ -3982,7 +3983,7 @@
         <v>91</v>
       </c>
       <c r="EC5" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED5" s="1" t="s">
         <v>91</v>
@@ -3997,33 +3998,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>89</v>
@@ -4032,7 +4033,7 @@
         <v>99</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>90</v>
@@ -4050,97 +4051,97 @@
         <v>94</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>96</v>
@@ -4149,7 +4150,7 @@
         <v>91</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>86</v>
@@ -4161,16 +4162,16 @@
         <v>105</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>91</v>
@@ -4179,7 +4180,7 @@
         <v>86</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP6" s="1" t="s">
         <v>86</v>
@@ -4194,10 +4195,10 @@
         <v>91</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW6" s="1" t="s">
         <v>105</v>
@@ -4209,7 +4210,7 @@
         <v>105</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>91</v>
@@ -4227,31 +4228,31 @@
         <v>86</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN6" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA6" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC6" s="1" t="s">
         <v>91</v>
@@ -4260,37 +4261,37 @@
         <v>91</v>
       </c>
       <c r="DE6" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG6" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK6" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL6" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="DM6" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="DN6" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO6" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP6" s="1" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="DQ6" s="1" t="s">
         <v>91</v>
@@ -4320,7 +4321,7 @@
         <v>91</v>
       </c>
       <c r="EC6" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED6" s="1" t="s">
         <v>91</v>
@@ -4335,33 +4336,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>89</v>
@@ -4370,7 +4371,7 @@
         <v>99</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>90</v>
@@ -4388,97 +4389,97 @@
         <v>94</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>96</v>
@@ -4487,7 +4488,7 @@
         <v>91</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>86</v>
@@ -4499,16 +4500,16 @@
         <v>105</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>91</v>
@@ -4517,7 +4518,7 @@
         <v>86</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP7" s="1" t="s">
         <v>86</v>
@@ -4532,10 +4533,10 @@
         <v>91</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW7" s="1" t="s">
         <v>105</v>
@@ -4547,7 +4548,7 @@
         <v>105</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>91</v>
@@ -4565,31 +4566,31 @@
         <v>86</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="CJ7" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN7" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA7" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC7" s="1" t="s">
         <v>91</v>
@@ -4598,37 +4599,37 @@
         <v>91</v>
       </c>
       <c r="DE7" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG7" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ7" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK7" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL7" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="DM7" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="DN7" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO7" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP7" s="1" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="DQ7" s="1" t="s">
         <v>91</v>
@@ -4658,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="EC7" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED7" s="1" t="s">
         <v>91</v>
@@ -4673,33 +4674,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>89</v>
@@ -4708,7 +4709,7 @@
         <v>99</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>90</v>
@@ -4726,97 +4727,97 @@
         <v>94</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="V8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP8" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="AX8" s="1" t="s">
         <v>96</v>
@@ -4825,7 +4826,7 @@
         <v>91</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>86</v>
@@ -4837,16 +4838,16 @@
         <v>105</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI8" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>91</v>
@@ -4855,7 +4856,7 @@
         <v>86</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP8" s="1" t="s">
         <v>86</v>
@@ -4870,10 +4871,10 @@
         <v>91</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW8" s="1" t="s">
         <v>105</v>
@@ -4885,7 +4886,7 @@
         <v>105</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>91</v>
@@ -4903,31 +4904,31 @@
         <v>86</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN8" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="CR8" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT8" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV8" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA8" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC8" s="1" t="s">
         <v>91</v>
@@ -4936,37 +4937,37 @@
         <v>91</v>
       </c>
       <c r="DE8" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG8" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ8" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL8" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="DM8" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="DN8" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP8" s="1" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="DQ8" s="1" t="s">
         <v>91</v>
@@ -4996,7 +4997,7 @@
         <v>91</v>
       </c>
       <c r="EC8" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED8" s="1" t="s">
         <v>91</v>
@@ -5011,33 +5012,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>89</v>
@@ -5046,7 +5047,7 @@
         <v>99</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>90</v>
@@ -5064,97 +5065,97 @@
         <v>94</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="V9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="AX9" s="1" t="s">
         <v>96</v>
@@ -5163,7 +5164,7 @@
         <v>91</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>86</v>
@@ -5175,16 +5176,16 @@
         <v>105</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="BL9" s="1" t="s">
         <v>91</v>
@@ -5193,7 +5194,7 @@
         <v>86</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP9" s="1" t="s">
         <v>86</v>
@@ -5208,10 +5209,10 @@
         <v>91</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW9" s="1" t="s">
         <v>105</v>
@@ -5223,7 +5224,7 @@
         <v>105</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>91</v>
@@ -5241,31 +5242,31 @@
         <v>86</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN9" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="CR9" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT9" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA9" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC9" s="1" t="s">
         <v>91</v>
@@ -5274,37 +5275,37 @@
         <v>91</v>
       </c>
       <c r="DE9" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG9" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ9" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK9" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL9" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="DM9" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="DN9" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO9" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP9" s="1" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="DQ9" s="1" t="s">
         <v>91</v>
@@ -5334,7 +5335,7 @@
         <v>91</v>
       </c>
       <c r="EC9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED9" s="1" t="s">
         <v>91</v>
@@ -5349,33 +5350,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>89</v>
@@ -5384,7 +5385,7 @@
         <v>99</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>90</v>
@@ -5402,97 +5403,97 @@
         <v>94</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="V10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP10" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="AX10" s="1" t="s">
         <v>96</v>
@@ -5501,7 +5502,7 @@
         <v>91</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>86</v>
@@ -5513,16 +5514,16 @@
         <v>105</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="BL10" s="1" t="s">
         <v>91</v>
@@ -5531,7 +5532,7 @@
         <v>86</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP10" s="1" t="s">
         <v>86</v>
@@ -5546,10 +5547,10 @@
         <v>91</v>
       </c>
       <c r="BT10" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV10" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW10" s="1" t="s">
         <v>105</v>
@@ -5561,7 +5562,7 @@
         <v>105</v>
       </c>
       <c r="BZ10" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA10" s="1" t="s">
         <v>91</v>
@@ -5579,31 +5580,31 @@
         <v>86</v>
       </c>
       <c r="CH10" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CJ10" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK10" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL10" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN10" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="CR10" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT10" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA10" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC10" s="1" t="s">
         <v>91</v>
@@ -5612,37 +5613,37 @@
         <v>91</v>
       </c>
       <c r="DE10" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF10" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG10" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ10" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK10" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL10" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="DM10" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="DN10" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO10" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP10" s="1" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="DQ10" s="1" t="s">
         <v>91</v>
@@ -5672,7 +5673,7 @@
         <v>91</v>
       </c>
       <c r="EC10" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED10" s="1" t="s">
         <v>91</v>
@@ -5687,33 +5688,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>89</v>
@@ -5722,7 +5723,7 @@
         <v>99</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>90</v>
@@ -5740,97 +5741,97 @@
         <v>94</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="V11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP11" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ11" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="AS11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="AX11" s="1" t="s">
         <v>96</v>
@@ -5839,7 +5840,7 @@
         <v>91</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>86</v>
@@ -5851,16 +5852,16 @@
         <v>105</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="BL11" s="1" t="s">
         <v>91</v>
@@ -5869,7 +5870,7 @@
         <v>86</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP11" s="1" t="s">
         <v>86</v>
@@ -5884,10 +5885,10 @@
         <v>91</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW11" s="1" t="s">
         <v>105</v>
@@ -5899,7 +5900,7 @@
         <v>105</v>
       </c>
       <c r="BZ11" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA11" s="1" t="s">
         <v>91</v>
@@ -5917,31 +5918,31 @@
         <v>86</v>
       </c>
       <c r="CH11" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="CJ11" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK11" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN11" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="CR11" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT11" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA11" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC11" s="1" t="s">
         <v>91</v>
@@ -5950,37 +5951,37 @@
         <v>91</v>
       </c>
       <c r="DE11" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG11" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI11" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ11" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK11" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL11" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="DM11" s="1" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="DN11" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO11" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP11" s="1" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="DQ11" s="1" t="s">
         <v>91</v>
@@ -6010,7 +6011,7 @@
         <v>91</v>
       </c>
       <c r="EC11" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED11" s="1" t="s">
         <v>91</v>
@@ -6025,33 +6026,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>89</v>
@@ -6060,7 +6061,7 @@
         <v>99</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>90</v>
@@ -6078,97 +6079,97 @@
         <v>94</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="V12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP12" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ12" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="AS12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="AX12" s="1" t="s">
         <v>96</v>
@@ -6177,7 +6178,7 @@
         <v>91</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA12" s="1" t="s">
         <v>86</v>
@@ -6189,16 +6190,16 @@
         <v>105</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI12" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="BL12" s="1" t="s">
         <v>91</v>
@@ -6207,7 +6208,7 @@
         <v>86</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP12" s="1" t="s">
         <v>86</v>
@@ -6222,10 +6223,10 @@
         <v>91</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV12" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW12" s="1" t="s">
         <v>105</v>
@@ -6237,7 +6238,7 @@
         <v>105</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA12" s="1" t="s">
         <v>91</v>
@@ -6255,31 +6256,31 @@
         <v>86</v>
       </c>
       <c r="CH12" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="CJ12" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK12" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN12" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="CR12" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT12" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA12" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC12" s="1" t="s">
         <v>91</v>
@@ -6288,37 +6289,37 @@
         <v>91</v>
       </c>
       <c r="DE12" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG12" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ12" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK12" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL12" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="DM12" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="DN12" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO12" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP12" s="1" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="DQ12" s="1" t="s">
         <v>91</v>
@@ -6348,7 +6349,7 @@
         <v>91</v>
       </c>
       <c r="EC12" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED12" s="1" t="s">
         <v>91</v>
@@ -6363,33 +6364,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>352</v>
+        <v>280</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>89</v>
@@ -6398,7 +6399,7 @@
         <v>99</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>90</v>
@@ -6416,97 +6417,97 @@
         <v>94</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>95</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="V13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP13" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AQ13" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AU13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="AX13" s="1" t="s">
         <v>96</v>
@@ -6515,7 +6516,7 @@
         <v>91</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>86</v>
@@ -6527,16 +6528,16 @@
         <v>105</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BG13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BJ13" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="BL13" s="1" t="s">
         <v>91</v>
@@ -6545,7 +6546,7 @@
         <v>86</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="BP13" s="1" t="s">
         <v>86</v>
@@ -6560,10 +6561,10 @@
         <v>91</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BW13" s="1" t="s">
         <v>105</v>
@@ -6575,7 +6576,7 @@
         <v>105</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CA13" s="1" t="s">
         <v>91</v>
@@ -6596,28 +6597,28 @@
         <v>355</v>
       </c>
       <c r="CJ13" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CK13" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="CL13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="CN13" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="CR13" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="CT13" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="CV13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA13" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="DC13" s="1" t="s">
         <v>91</v>
@@ -6626,37 +6627,37 @@
         <v>91</v>
       </c>
       <c r="DE13" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="DF13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DG13" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="DI13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DJ13" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="DK13" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DL13" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="DM13" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="DN13" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="DO13" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP13" s="1" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="DQ13" s="1" t="s">
         <v>91</v>
@@ -6686,7 +6687,7 @@
         <v>91</v>
       </c>
       <c r="EC13" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="ED13" s="1" t="s">
         <v>91</v>
@@ -6701,18 +6702,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
